--- a/docment/テスト項目関連/win7_chrome55 おまけ.xlsx
+++ b/docment/テスト項目関連/win7_chrome55 おまけ.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="71">
   <si>
     <t>確認項目</t>
     <rPh sb="0" eb="2">
@@ -796,6 +796,41 @@
   </si>
   <si>
     <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特に記述なき場合2017/1/27吉田が確認したとする</t>
+    <rPh sb="0" eb="1">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヨシダ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクニン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1220,37 +1255,37 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2123,11 +2158,11 @@
       <c r="B5" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="52"/>
       <c r="H5" s="27">
         <v>42758</v>
       </c>
@@ -2144,11 +2179,11 @@
       <c r="B6" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="43"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
       <c r="H6" s="27">
         <v>42758</v>
       </c>
@@ -2290,14 +2325,14 @@
     </row>
     <row r="13" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
       <c r="H13" s="27">
         <v>42758</v>
       </c>
@@ -2311,14 +2346,14 @@
     </row>
     <row r="14" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
       <c r="H14" s="27">
         <v>42758</v>
       </c>
@@ -2335,15 +2370,15 @@
       <c r="A16" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="48"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="47"/>
       <c r="I16" s="25" t="s">
         <v>17</v>
       </c>
@@ -2359,13 +2394,13 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="51"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="50"/>
       <c r="I17" s="23"/>
       <c r="J17" s="3"/>
       <c r="K17" s="4"/>
@@ -2375,13 +2410,13 @@
       <c r="A18" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="51"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="50"/>
       <c r="I18" s="26"/>
       <c r="J18" s="2"/>
       <c r="K18" s="4"/>
@@ -2389,15 +2424,15 @@
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
       <c r="I19" s="27">
         <v>42758</v>
       </c>
@@ -2411,15 +2446,15 @@
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
       <c r="K20" s="4"/>
@@ -2427,15 +2462,15 @@
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
       <c r="K21" s="4"/>
@@ -2443,15 +2478,15 @@
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
       <c r="I22" s="30">
         <v>42758</v>
       </c>
@@ -2465,15 +2500,15 @@
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
       <c r="I23" s="30">
         <v>42758</v>
       </c>
@@ -2487,15 +2522,15 @@
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
       <c r="I24" s="27">
         <v>42758</v>
       </c>
@@ -2509,15 +2544,15 @@
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
       <c r="I25" s="27">
         <v>42758</v>
       </c>
@@ -2531,15 +2566,15 @@
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
       <c r="I26" s="27">
         <v>42758</v>
       </c>
@@ -2553,15 +2588,15 @@
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
       <c r="I27" s="27">
         <v>42758</v>
       </c>
@@ -2575,15 +2610,15 @@
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
       <c r="I28" s="27">
         <v>42758</v>
       </c>
@@ -2597,15 +2632,15 @@
     </row>
     <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
       <c r="I29" s="27">
         <v>42758</v>
       </c>
@@ -2619,15 +2654,15 @@
     </row>
     <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="52" t="s">
+      <c r="B30" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
       <c r="I30" s="27">
         <v>42758</v>
       </c>
@@ -2641,15 +2676,15 @@
     </row>
     <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
-      <c r="B31" s="52" t="s">
+      <c r="B31" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
       <c r="I31" s="27">
         <v>42758</v>
       </c>
@@ -2663,15 +2698,15 @@
     </row>
     <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
       <c r="I32" s="30">
         <v>42758</v>
       </c>
@@ -2685,15 +2720,15 @@
     </row>
     <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
       <c r="I33" s="30">
         <v>42758</v>
       </c>
@@ -2707,15 +2742,15 @@
     </row>
     <row r="34" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
       <c r="I34" s="27">
         <v>42758</v>
       </c>
@@ -2729,15 +2764,15 @@
     </row>
     <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
       <c r="I35" s="27">
         <v>42758</v>
       </c>
@@ -2751,15 +2786,15 @@
     </row>
     <row r="36" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
       <c r="I36" s="27">
         <v>42758</v>
       </c>
@@ -2773,15 +2808,15 @@
     </row>
     <row r="37" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
-      <c r="B37" s="44" t="s">
+      <c r="B37" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
       <c r="I37" s="27">
         <v>42758</v>
       </c>
@@ -2795,15 +2830,15 @@
     </row>
     <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
-      <c r="B38" s="44" t="s">
+      <c r="B38" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
       <c r="I38" s="27">
         <v>42758</v>
       </c>
@@ -2817,15 +2852,15 @@
     </row>
     <row r="39" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
       <c r="I39" s="32">
         <v>42758</v>
       </c>
@@ -2845,19 +2880,16 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
     <mergeCell ref="B23:H23"/>
     <mergeCell ref="B24:H24"/>
     <mergeCell ref="B25:H25"/>
@@ -2872,16 +2904,19 @@
     <mergeCell ref="B18:H18"/>
     <mergeCell ref="B19:H19"/>
     <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B35:H35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -2899,7 +2934,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I4:I5"/>
+      <selection activeCell="B3" sqref="B3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2943,7 +2978,9 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="17"/>
-      <c r="B3" s="54"/>
+      <c r="B3" s="54" t="s">
+        <v>70</v>
+      </c>
       <c r="C3" s="54"/>
       <c r="D3" s="54"/>
       <c r="E3" s="54"/>
@@ -2986,7 +3023,9 @@
       <c r="G5" s="53"/>
       <c r="H5" s="53"/>
       <c r="I5" s="27"/>
-      <c r="J5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="K5" s="4"/>
       <c r="L5" s="6"/>
     </row>
@@ -3002,7 +3041,9 @@
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
       <c r="I6" s="27"/>
-      <c r="J6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="K6" s="4"/>
       <c r="L6" s="6"/>
     </row>
@@ -3018,39 +3059,45 @@
       <c r="G7" s="53"/>
       <c r="H7" s="53"/>
       <c r="I7" s="27"/>
-      <c r="J7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="K7" s="4"/>
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
       <c r="I8" s="27"/>
-      <c r="J8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="K8" s="4"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="K9" s="4"/>
       <c r="L9" s="2"/>
     </row>
@@ -3066,7 +3113,9 @@
       <c r="G10" s="33"/>
       <c r="H10" s="33"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="K10" s="4"/>
       <c r="L10" s="6"/>
     </row>
@@ -3082,7 +3131,9 @@
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="K11" s="4"/>
       <c r="L11" s="6"/>
     </row>
@@ -3104,15 +3155,15 @@
       <c r="A13" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="48"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="47"/>
       <c r="I13" s="25" t="s">
         <v>17</v>
       </c>
@@ -3128,13 +3179,13 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="51"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="50"/>
       <c r="I14" s="23"/>
       <c r="J14" s="3"/>
       <c r="K14" s="4"/>
@@ -3144,13 +3195,13 @@
       <c r="A15" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="51"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="50"/>
       <c r="I15" s="26"/>
       <c r="J15" s="2"/>
       <c r="K15" s="4"/>
@@ -3158,342 +3209,402 @@
     </row>
     <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="K16" s="4"/>
       <c r="L16" s="6"/>
     </row>
     <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
       <c r="I17" s="14"/>
-      <c r="J17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="K17" s="4"/>
       <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
       <c r="I18" s="14"/>
-      <c r="J18" s="2"/>
+      <c r="J18" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="K18" s="4"/>
       <c r="L18" s="6"/>
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
       <c r="I19" s="27"/>
-      <c r="J19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="K19" s="4"/>
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="2"/>
+      <c r="J20" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="K20" s="4"/>
       <c r="L20" s="6"/>
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="2"/>
+      <c r="J21" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="K21" s="4"/>
       <c r="L21" s="6"/>
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
       <c r="I22" s="27"/>
-      <c r="J22" s="2"/>
+      <c r="J22" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="K22" s="4"/>
       <c r="L22" s="6"/>
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="2"/>
+      <c r="J23" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="K23" s="4"/>
       <c r="L23" s="6"/>
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
       <c r="I24" s="27"/>
-      <c r="J24" s="2"/>
+      <c r="J24" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="K24" s="4"/>
       <c r="L24" s="6"/>
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="2"/>
+      <c r="J25" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="K25" s="4"/>
       <c r="L25" s="6"/>
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="2"/>
+      <c r="J26" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="K26" s="4"/>
       <c r="L26" s="6"/>
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="2"/>
+      <c r="J27" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="K27" s="4"/>
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="52" t="s">
+      <c r="B28" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="2"/>
+      <c r="J28" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="K28" s="4"/>
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="2"/>
+      <c r="J29" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="K29" s="4"/>
       <c r="L29" s="6"/>
     </row>
     <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="2"/>
+      <c r="J30" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="K30" s="4"/>
       <c r="L30" s="6"/>
     </row>
     <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
       <c r="I31" s="27"/>
-      <c r="J31" s="2"/>
+      <c r="J31" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="K31" s="4"/>
       <c r="L31" s="6"/>
     </row>
     <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="2"/>
+      <c r="J32" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="K32" s="4"/>
       <c r="L32" s="6"/>
     </row>
     <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="2"/>
+      <c r="J33" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="K33" s="4"/>
       <c r="L33" s="6"/>
     </row>
     <row r="34" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="2"/>
+      <c r="J34" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="K34" s="4"/>
       <c r="L34" s="6"/>
     </row>
     <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="2"/>
+      <c r="J35" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="K35" s="4"/>
       <c r="L35" s="6"/>
     </row>
     <row r="36" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="2"/>
+      <c r="J36" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="K36" s="4"/>
       <c r="L36" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B17:H17"/>
     <mergeCell ref="B23:H23"/>
     <mergeCell ref="B36:H36"/>
     <mergeCell ref="B33:H33"/>
@@ -3510,24 +3621,6 @@
     <mergeCell ref="B26:H26"/>
     <mergeCell ref="B27:H27"/>
     <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B13:H13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">

--- a/docment/テスト項目関連/win7_chrome55 おまけ.xlsx
+++ b/docment/テスト項目関連/win7_chrome55 おまけ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="456" windowWidth="22056" windowHeight="8604" tabRatio="603" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="456" windowWidth="22056" windowHeight="8604" tabRatio="603" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="25" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="71">
   <si>
     <t>確認項目</t>
     <rPh sb="0" eb="2">
@@ -1255,12 +1255,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1282,10 +1285,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1867,7 +1867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -2081,10 +2081,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="B20" sqref="A20:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2158,11 +2158,11 @@
       <c r="B5" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="52"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="43"/>
       <c r="H5" s="27">
         <v>42758</v>
       </c>
@@ -2179,11 +2179,11 @@
       <c r="B6" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="43"/>
       <c r="H6" s="27">
         <v>42758</v>
       </c>
@@ -2325,14 +2325,14 @@
     </row>
     <row r="13" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
       <c r="H13" s="27">
         <v>42758</v>
       </c>
@@ -2346,14 +2346,14 @@
     </row>
     <row r="14" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
       <c r="H14" s="27">
         <v>42758</v>
       </c>
@@ -2370,15 +2370,15 @@
       <c r="A16" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="48"/>
       <c r="I16" s="25" t="s">
         <v>17</v>
       </c>
@@ -2394,13 +2394,13 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="50"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="51"/>
       <c r="I17" s="23"/>
       <c r="J17" s="3"/>
       <c r="K17" s="4"/>
@@ -2410,13 +2410,13 @@
       <c r="A18" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="50"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="51"/>
       <c r="I18" s="26"/>
       <c r="J18" s="2"/>
       <c r="K18" s="4"/>
@@ -2424,15 +2424,15 @@
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
       <c r="I19" s="27">
         <v>42758</v>
       </c>
@@ -2446,40 +2446,52 @@
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
-      <c r="B20" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="7"/>
+      <c r="B20" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="30">
+        <v>42758</v>
+      </c>
+      <c r="J20" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="B21" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="4"/>
+      <c r="B21" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="30">
+        <v>42758</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="L21" s="6"/>
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="44" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C22" s="44"/>
       <c r="D22" s="44"/>
@@ -2487,7 +2499,7 @@
       <c r="F22" s="44"/>
       <c r="G22" s="44"/>
       <c r="H22" s="44"/>
-      <c r="I22" s="30">
+      <c r="I22" s="27">
         <v>42758</v>
       </c>
       <c r="J22" s="27" t="s">
@@ -2496,20 +2508,20 @@
       <c r="K22" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="L22" s="3"/>
+      <c r="L22" s="6"/>
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
-      <c r="B23" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="30">
+      <c r="B23" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="27">
         <v>42758</v>
       </c>
       <c r="J23" s="27" t="s">
@@ -2522,15 +2534,15 @@
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
-      <c r="B24" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
+      <c r="B24" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
       <c r="I24" s="27">
         <v>42758</v>
       </c>
@@ -2544,20 +2556,20 @@
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
-      <c r="B25" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
+      <c r="B25" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
       <c r="I25" s="27">
         <v>42758</v>
       </c>
       <c r="J25" s="27" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>63</v>
@@ -2566,15 +2578,15 @@
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
-      <c r="B26" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
+      <c r="B26" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
       <c r="I26" s="27">
         <v>42758</v>
       </c>
@@ -2588,20 +2600,20 @@
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
-      <c r="B27" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
+      <c r="B27" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
       <c r="I27" s="27">
         <v>42758</v>
       </c>
       <c r="J27" s="27" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>63</v>
@@ -2610,15 +2622,15 @@
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
+      <c r="B28" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
       <c r="I28" s="27">
         <v>42758</v>
       </c>
@@ -2628,19 +2640,19 @@
       <c r="K28" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="L28" s="6"/>
+      <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
-      <c r="B29" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
+      <c r="B29" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
       <c r="I29" s="27">
         <v>42758</v>
       </c>
@@ -2650,20 +2662,20 @@
       <c r="K29" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="L29" s="6"/>
+      <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="27">
+      <c r="B30" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="30">
         <v>42758</v>
       </c>
       <c r="J30" s="27" t="s">
@@ -2672,20 +2684,20 @@
       <c r="K30" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="L30" s="2"/>
+      <c r="L30" s="6"/>
     </row>
     <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
-      <c r="B31" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="27">
+      <c r="B31" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="30">
         <v>42758</v>
       </c>
       <c r="J31" s="27" t="s">
@@ -2694,20 +2706,20 @@
       <c r="K31" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="L31" s="2"/>
+      <c r="L31" s="6"/>
     </row>
     <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="30">
+      <c r="B32" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="27">
         <v>42758</v>
       </c>
       <c r="J32" s="27" t="s">
@@ -2720,16 +2732,16 @@
     </row>
     <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="B33" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="30">
+      <c r="B33" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="27">
         <v>42758</v>
       </c>
       <c r="J33" s="27" t="s">
@@ -2742,15 +2754,15 @@
     </row>
     <row r="34" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
-      <c r="B34" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
+      <c r="B34" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
       <c r="I34" s="27">
         <v>42758</v>
       </c>
@@ -2764,15 +2776,15 @@
     </row>
     <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
-      <c r="B35" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
+      <c r="B35" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
       <c r="I35" s="27">
         <v>42758</v>
       </c>
@@ -2786,15 +2798,15 @@
     </row>
     <row r="36" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
-      <c r="B36" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
+      <c r="B36" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
       <c r="I36" s="27">
         <v>42758</v>
       </c>
@@ -2808,16 +2820,16 @@
     </row>
     <row r="37" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
-      <c r="B37" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="27">
+      <c r="B37" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="32">
         <v>42758</v>
       </c>
       <c r="J37" s="27" t="s">
@@ -2829,94 +2841,48 @@
       <c r="L37" s="6"/>
     </row>
     <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="27">
-        <v>42758</v>
-      </c>
-      <c r="J38" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L38" s="6"/>
+      <c r="I38" s="31"/>
     </row>
     <row r="39" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-      <c r="B39" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="32">
-        <v>42758</v>
-      </c>
-      <c r="J39" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L39" s="6"/>
-    </row>
-    <row r="40" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="I40" s="31"/>
-    </row>
-    <row r="41" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="I41" s="31"/>
+      <c r="I39" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="35">
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B35:H35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -2933,8 +2899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3067,15 +3033,15 @@
     </row>
     <row r="8" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
       <c r="I8" s="27"/>
       <c r="J8" s="2" t="s">
         <v>67</v>
@@ -3085,15 +3051,15 @@
     </row>
     <row r="9" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
       <c r="I9" s="27"/>
       <c r="J9" s="2" t="s">
         <v>67</v>
@@ -3155,15 +3121,15 @@
       <c r="A13" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="48"/>
       <c r="I13" s="25" t="s">
         <v>17</v>
       </c>
@@ -3179,13 +3145,13 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="50"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="51"/>
       <c r="I14" s="23"/>
       <c r="J14" s="3"/>
       <c r="K14" s="4"/>
@@ -3195,13 +3161,13 @@
       <c r="A15" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="50"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="51"/>
       <c r="I15" s="26"/>
       <c r="J15" s="2"/>
       <c r="K15" s="4"/>
@@ -3209,15 +3175,15 @@
     </row>
     <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
       <c r="I16" s="27"/>
       <c r="J16" s="2" t="s">
         <v>68</v>
@@ -3227,15 +3193,15 @@
     </row>
     <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
       <c r="I17" s="14"/>
       <c r="J17" s="2" t="s">
         <v>66</v>
@@ -3245,15 +3211,15 @@
     </row>
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
       <c r="I18" s="14"/>
       <c r="J18" s="2" t="s">
         <v>67</v>
@@ -3263,15 +3229,15 @@
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
       <c r="I19" s="27"/>
       <c r="J19" s="2" t="s">
         <v>67</v>
@@ -3281,15 +3247,15 @@
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
       <c r="I20" s="27"/>
       <c r="J20" s="2" t="s">
         <v>69</v>
@@ -3299,15 +3265,15 @@
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
       <c r="I21" s="27"/>
       <c r="J21" s="2" t="s">
         <v>68</v>
@@ -3317,15 +3283,15 @@
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
       <c r="I22" s="27"/>
       <c r="J22" s="2" t="s">
         <v>68</v>
@@ -3335,15 +3301,15 @@
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
       <c r="I23" s="27"/>
       <c r="J23" s="2" t="s">
         <v>66</v>
@@ -3353,15 +3319,15 @@
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
       <c r="I24" s="27"/>
       <c r="J24" s="2" t="s">
         <v>66</v>
@@ -3371,15 +3337,15 @@
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
       <c r="I25" s="27"/>
       <c r="J25" s="2" t="s">
         <v>68</v>
@@ -3389,15 +3355,15 @@
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
       <c r="I26" s="27"/>
       <c r="J26" s="2" t="s">
         <v>68</v>
@@ -3407,15 +3373,15 @@
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
       <c r="I27" s="27"/>
       <c r="J27" s="2" t="s">
         <v>67</v>
@@ -3425,15 +3391,15 @@
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
       <c r="I28" s="27"/>
       <c r="J28" s="2" t="s">
         <v>69</v>
@@ -3443,15 +3409,15 @@
     </row>
     <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
       <c r="I29" s="27"/>
       <c r="J29" s="2" t="s">
         <v>68</v>
@@ -3461,15 +3427,15 @@
     </row>
     <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
       <c r="I30" s="27"/>
       <c r="J30" s="2" t="s">
         <v>68</v>
@@ -3479,15 +3445,15 @@
     </row>
     <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
       <c r="I31" s="27"/>
       <c r="J31" s="2" t="s">
         <v>67</v>
@@ -3497,15 +3463,15 @@
     </row>
     <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
       <c r="I32" s="27"/>
       <c r="J32" s="2" t="s">
         <v>68</v>
@@ -3515,15 +3481,15 @@
     </row>
     <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
       <c r="I33" s="27"/>
       <c r="J33" s="2" t="s">
         <v>69</v>
@@ -3533,15 +3499,15 @@
     </row>
     <row r="34" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
       <c r="I34" s="27"/>
       <c r="J34" s="2" t="s">
         <v>67</v>
@@ -3551,15 +3517,15 @@
     </row>
     <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
       <c r="I35" s="27"/>
       <c r="J35" s="2" t="s">
         <v>67</v>
@@ -3569,15 +3535,15 @@
     </row>
     <row r="36" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
       <c r="I36" s="27"/>
       <c r="J36" s="2" t="s">
         <v>67</v>
@@ -3587,24 +3553,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B17:H17"/>
     <mergeCell ref="B23:H23"/>
     <mergeCell ref="B36:H36"/>
     <mergeCell ref="B33:H33"/>
@@ -3621,6 +3569,24 @@
     <mergeCell ref="B26:H26"/>
     <mergeCell ref="B27:H27"/>
     <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B13:H13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
